--- a/data/G6_fire_route.xlsx
+++ b/data/G6_fire_route.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JenRen\Documents\NCKU\IIM專題\GA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EEBEF5B-AEDB-40B4-BCB8-AA85069B2ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F2B7C4-EE48-4819-9BC8-7F4D4D8CC889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{9595EEA4-0A44-4E8E-95E4-D06D36A0F620}"/>
+    <workbookView xWindow="6588" yWindow="2484" windowWidth="23040" windowHeight="12120" xr2:uid="{9595EEA4-0A44-4E8E-95E4-D06D36A0F620}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -419,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A4FCC2-5787-4C46-86C0-9803F7B2AEEE}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,211 +436,172 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>99</v>
       </c>
-      <c r="E2">
+      <c r="D5">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>99</v>
-      </c>
-      <c r="E5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>5</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1</v>
-      </c>
       <c r="B13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
         <v>4</v>
       </c>
     </row>

--- a/data/G6_fire_route.xlsx
+++ b/data/G6_fire_route.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JenRen\Documents\NCKU\IIM專題\GA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F2B7C4-EE48-4819-9BC8-7F4D4D8CC889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EEBEF5B-AEDB-40B4-BCB8-AA85069B2ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6588" yWindow="2484" windowWidth="23040" windowHeight="12120" xr2:uid="{9595EEA4-0A44-4E8E-95E4-D06D36A0F620}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{9595EEA4-0A44-4E8E-95E4-D06D36A0F620}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,15 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A4FCC2-5787-4C46-86C0-9803F7B2AEEE}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,172 +440,211 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>99</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>99</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
         <v>5</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
         <v>5</v>
       </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
       <c r="C13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>4</v>
       </c>
     </row>
